--- a/experiments/capital/bert-base-cased_15/17/incorrect_predictions.xlsx
+++ b/experiments/capital/bert-base-cased_15/17/incorrect_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Aircraft ActiveTrack available at max speed . Obstacle Avoidance is not available .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7-14</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,71 +487,71 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Another aircraft is dangerously close , please descend to a safer altitude .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>When exceeding nnn,</t>
+          <t>Another aircraft is dangerously close</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed . When exceeding nnn, Obstacle Avoidance is not available .</t>
+          <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance is not available</t>
+          <t>Hardware malfunction</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone . Unable to take off . Check map to find Recommended Zones .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,46 +562,46 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone . RTH may be affected . Fly with caution .</t>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RTH may be affected</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>36-39</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed .</t>
+          <t>Downward ambient light too low . Obstacle avoidance unavailable . Fly with caution . Backward ambient light too low . Backward obstacle avoidance unavailable . Only infrared sensors available . Fly with caution .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>14-18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU .</t>
+          <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Exiting GPS mode</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,21 +637,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Compass error , calibration required .</t>
+          <t>Exiting GPS mode : Unknown Error .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Compass error</t>
+          <t>Unknown Error</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,21 +662,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Compass error , calibration required .</t>
+          <t>Flight altitude exceeds nnn . Aircraft may be in violation of local laws and regulations . Check and make sure you have obtained proper authorization to fly in this airspace .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>calibration required</t>
+          <t>Aircraft may be in violation of local laws and regulations</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -687,121 +687,121 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Compass error , calibration required .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Compass error , calibration required</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Compass Error . Compass direction is not the same with IMU .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>GEO Zone Info:</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit .</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone . Flight altitude restricted to nnn .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>The target area is in an Altitude Zone</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-11</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit .</t>
+          <t>Gimbal Recenter .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>During Smart Track,</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Error: Course angle control error . Please ensure the propellers are installed on the correct motors .</t>
+          <t>Impact detected . Aircraft stopped . Restart aircraft .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Error: Course angle control error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>6-7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -812,124 +812,49 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Error: Course angle control error . Please ensure the propellers are installed on the correct motors .</t>
+          <t>Motor Obstructed . Propulsion output is limited to ensure the health of the battery .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Course angle control error</t>
+          <t>Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>3-13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>High altitude . Aircraft braking distance increased and flight time decreased . Fly with caution .</t>
+          <t>No GPS signal . Unable to hover . Fly with caution .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>High altitude</t>
+          <t>Unable to hover</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>103</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>IMU warming up . Wait before taking off .</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>IMU warming up</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>103</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>IMU warming up . Wait before taking off .</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>IMU warming</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>113</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Low power , please replace the battery .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Low power</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
